--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Todo</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Fix bug with markers not in the right place</t>
   </si>
 </sst>
 </file>
@@ -371,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,17 +404,17 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D6" si="0">AVERAGE(B2:C2)</f>
         <v>2</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>AVERAGE(B2:C2)</f>
-        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">AVERAGE(B3:C3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -479,8 +482,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B11:C11)</f>
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6">
+  <conditionalFormatting sqref="D2:D6 D11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Documents\GitHub\2223ws-workshop-franklin\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED57615-8ED3-DF42-A760-9CE4843A2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Todo</t>
   </si>
@@ -57,12 +66,15 @@
   </si>
   <si>
     <t>Fix bug with markers not in the right place</t>
+  </si>
+  <si>
+    <t>Data clearence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,22 +385,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,104 +414,119 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D5" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>AVERAGE(B9:C9)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>AVERAGE(B10:C10)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <f>AVERAGE(B11:C11)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D6 D11">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D2:D5 D9:D11">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -510,6 +537,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED57615-8ED3-DF42-A760-9CE4843A2F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12646E75-E074-5A4A-94DE-7D4E454497D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Todo</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Data clearence</t>
+  </si>
+  <si>
+    <t>Hover text with Background &amp; display front</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -425,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D5" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D6" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -470,6 +473,21 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12646E75-E074-5A4A-94DE-7D4E454497D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CD22C-0A03-A044-805A-D759B1C1C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Todo</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Hover text with Background &amp; display front</t>
+  </si>
+  <si>
+    <t>Animation before display of chart</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -428,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D6" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D7" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -492,58 +495,73 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B12">
         <v>5</v>
       </c>
-      <c r="C9">
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D9">
-        <f>AVERAGE(B9:C9)</f>
+      <c r="D12">
+        <f>AVERAGE(B12:C12)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(B10:C10)</f>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>AVERAGE(B13:C13)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D11">
-        <f>AVERAGE(B11:C11)</f>
+      <c r="D14">
+        <f>AVERAGE(B14:C14)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 D9:D11">
+  <conditionalFormatting sqref="D2:D5 D12:D14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -555,7 +573,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D11">
+  <conditionalFormatting sqref="D2:D14">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5CD22C-0A03-A044-805A-D759B1C1C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945E3AB-CE53-D14D-B8B2-B683AEF930D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Todo</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Animation before display of chart</t>
+  </si>
+  <si>
+    <t>Play and Pause Button</t>
+  </si>
+  <si>
+    <t>Skip und Back Button (Year)</t>
+  </si>
+  <si>
+    <t>Total Skip and Back button</t>
   </si>
 </sst>
 </file>
@@ -392,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D7" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D10" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -510,58 +519,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <f>AVERAGE(B12:C12)</f>
-        <v>3.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <f>AVERAGE(B13:C13)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f>AVERAGE(B14:C14)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(B15:C15)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 D12:D14">
+  <conditionalFormatting sqref="D2:D5 D13:D15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -573,7 +627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D14">
+  <conditionalFormatting sqref="D2:D15">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945E3AB-CE53-D14D-B8B2-B683AEF930D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583A00E-DB28-3F47-B270-144519C876CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Todo</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Total Skip and Back button</t>
+  </si>
+  <si>
+    <t>1,5 - 2 min Video of the chart and some information</t>
+  </si>
+  <si>
+    <t>If counting is 0 do not display it until first launch</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -440,7 +446,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D10" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D12" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -564,59 +570,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <f>AVERAGE(B13:C13)</f>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>AVERAGE(B16:C16)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(B14:C14)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(B17:C17)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D15">
-        <f>AVERAGE(B15:C15)</f>
+      <c r="D18">
+        <f>AVERAGE(B18:C18)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 D13:D15">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D2:D5 D16:D18">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -627,8 +663,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D15">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6583A00E-DB28-3F47-B270-144519C876CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FDE1CE-D05F-F344-B8AD-C1E3E82B8731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Todo</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>If counting is 0 do not display it until first launch</t>
+  </si>
+  <si>
+    <t>Brasil and Australia only as ar Bar chart ?</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +449,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D12" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D13" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -598,6 +601,21 @@
       <c r="D12">
         <f t="shared" si="0"/>
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FDE1CE-D05F-F344-B8AD-C1E3E82B8731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8913B-F993-D94F-97C6-7E6B327120EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Todo</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Hover text with Background &amp; display front</t>
   </si>
   <si>
-    <t>Animation before display of chart</t>
-  </si>
-  <si>
     <t>Play and Pause Button</t>
   </si>
   <si>
@@ -93,6 +90,12 @@
   </si>
   <si>
     <t>Brasil and Australia only as ar Bar chart ?</t>
+  </si>
+  <si>
+    <t>Soft middle raws, like 10, 20, 30 … for better Differentiation</t>
+  </si>
+  <si>
+    <t>Animation before display of chart (Video)</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,7 +452,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D13" si="0">AVERAGE(B2:C2)</f>
+        <f t="shared" ref="D2:D14" si="0">AVERAGE(B2:C2)</f>
         <v>1</v>
       </c>
     </row>
@@ -461,11 +464,11 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -476,11 +479,11 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -515,22 +518,22 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -545,7 +548,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -560,7 +563,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -575,7 +578,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -590,86 +593,101 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <f>AVERAGE(B16:C16)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <f>AVERAGE(B17:C17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18">
         <f>AVERAGE(B18:C18)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
         <v>3</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>AVERAGE(B19:C19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(B20:C20)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 D16:D18">
+  <conditionalFormatting sqref="D2:D5 D18:D20">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -681,7 +699,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D18">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A8913B-F993-D94F-97C6-7E6B327120EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A24C1A-A029-EE41-80CB-81BFEE5C1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Todo</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Fix bug with markers not in the right place</t>
   </si>
   <si>
-    <t>Data clearence</t>
-  </si>
-  <si>
     <t>Hover text with Background &amp; display front</t>
   </si>
   <si>
@@ -96,19 +93,38 @@
   </si>
   <si>
     <t>Animation before display of chart (Video)</t>
+  </si>
+  <si>
+    <t>Image at top of 4 special event pliiars (the Rocket or Station)</t>
+  </si>
+  <si>
+    <t>Data clearence (remove unused files)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,8 +147,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,281 +434,297 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D14" si="0">AVERAGE(B2:C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D13" si="0">AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f>AVERAGE(B14:C14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f>AVERAGE(B15:C15)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <f>AVERAGE(B18:C18)</f>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <f>AVERAGE(B22:C22)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f>AVERAGE(B19:C19)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(B20:C20)</f>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <f>AVERAGE(B23:C23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <f>AVERAGE(B24:C24)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D5 D18:D20">
+  <conditionalFormatting sqref="D22:D24 D2:D5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -699,7 +736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D2:D24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Documents\GitHub\2223ws-workshop-franklin\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A24C1A-A029-EE41-80CB-81BFEE5C1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1040" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Todo</t>
   </si>
@@ -99,13 +98,19 @@
   </si>
   <si>
     <t>Data clearence (remove unused files)</t>
+  </si>
+  <si>
+    <t>Only one line for UdSSR and Russia</t>
+  </si>
+  <si>
+    <t>Bring back opacity of not selected lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,23 +438,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -463,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,11 +479,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:D13" si="0">AVERAGE(B2:C2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <f>AVERAGE(B2:C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,11 +494,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <f t="shared" ref="D2:D13" si="0">AVERAGE(B3:C3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -523,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -538,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -553,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -568,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -583,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -598,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -613,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -628,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -643,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -658,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -673,12 +678,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <f>AVERAGE(B16:C16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -693,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -708,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Todo</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Bring back opacity of not selected lines</t>
+  </si>
+  <si>
+    <t>Rockets launching animation</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
@@ -494,19 +497,19 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D2:D13" si="0">AVERAGE(B3:C3)</f>
+        <f t="shared" ref="D3:D12" si="0">AVERAGE(B3:C3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -515,7 +518,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -530,82 +533,82 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -620,58 +623,58 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>AVERAGE(B13:C13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
         <f>AVERAGE(B14:C14)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <f>AVERAGE(B15:C15)</f>
@@ -680,13 +683,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
         <v>4</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
       </c>
       <c r="D16" s="1">
         <f>AVERAGE(B16:C16)</f>
@@ -695,61 +698,86 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(B17:C17)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <f>AVERAGE(B21:C21)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" s="1">
         <f>AVERAGE(B22:C22)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" s="1">
         <f>AVERAGE(B23:C23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
         <f>AVERAGE(B24:C24)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D22:D24 D2:D5">
+  <conditionalFormatting sqref="D2:D4">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -761,7 +789,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D24">
+  <conditionalFormatting sqref="D2:D20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/project/todo_list.xlsx
+++ b/project/todo_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucaz\Documents\GitHub\2223ws-workshop-franklin\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timvonasen/Documents/02_HfG/GitHub/2223ws-workshop-franklin/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270960F0-E5DB-784D-B30A-963AE221FC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Todo</t>
   </si>
@@ -95,9 +96,6 @@
   </si>
   <si>
     <t>Image at top of 4 special event pliiars (the Rocket or Station)</t>
-  </si>
-  <si>
-    <t>Data clearence (remove unused files)</t>
   </si>
   <si>
     <t>Only one line for UdSSR and Russia</t>
@@ -112,8 +110,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,23 +439,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="58.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -471,9 +469,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -486,299 +484,299 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D12" si="0">AVERAGE(B3:C3)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <f>AVERAGE(B3:C3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
+        <f>AVERAGE(B4:C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <f>AVERAGE(B8:C8)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f>AVERAGE(B9:C9)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <f>AVERAGE(B10:C10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(B11:C11)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f>AVERAGE(B12:C12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D22" si="0">AVERAGE(B13:C13)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B15" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C15" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <f>AVERAGE(B13:C13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <f>AVERAGE(B14:C14)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <f>AVERAGE(B15:C15)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <f>AVERAGE(B16:C16)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <f>AVERAGE(B17:C17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-      <c r="D21" s="1">
-        <f>AVERAGE(B21:C21)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f>AVERAGE(B22:C22)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3</v>
-      </c>
       <c r="C23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
         <f>AVERAGE(B23:C23)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <f>AVERAGE(B24:C24)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -789,8 +787,104 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20">
+  <conditionalFormatting sqref="D12">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D19">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D7">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
